--- a/JuneStateClust_cv19.06.09.xlsx
+++ b/JuneStateClust_cv19.06.09.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faithfatchen/Dropbox/My Mac (Faith’s MacBook Pro)/Documents/Guo_Summer21/covid_clust/CleanData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faithfatchen/Dropbox/My Mac (Faith’s MacBook Pro)/Documents/GuoCovidData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B288F450-4029-9445-B74E-859E2955CBF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FF0956-0AAF-2541-8F00-7D772ACA3083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{CBC55F90-A7BB-7F41-93C0-3AEF421396FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
   <si>
     <t>State</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>People with at least 1 dose as  of total population</t>
+  </si>
+  <si>
+    <t>People with at least 1 dose as % of total population</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,6 +685,10 @@
     <xf numFmtId="2" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,15 +1003,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7F629F-E8CE-D344-ACFB-8054BA803E5C}">
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:AJ13"/>
+    <sheetView tabSelected="1" topLeftCell="AC40" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14:AN55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="37" max="37" width="10.83203125" style="19"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="98" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,8 +1123,11 @@
       <c r="AJ1" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="AK1" s="18" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -1223,8 +1236,11 @@
       <c r="AJ2" s="11">
         <v>1443230</v>
       </c>
+      <c r="AK2" s="11">
+        <v>0.36199999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1333,8 +1349,11 @@
       <c r="AJ3" s="11">
         <v>294324</v>
       </c>
+      <c r="AK3" s="11">
+        <v>0.46899999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1443,8 +1462,11 @@
       <c r="AJ4" s="11">
         <v>2697379</v>
       </c>
+      <c r="AK4" s="11">
+        <v>0.47199999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1553,8 +1575,11 @@
       <c r="AJ5" s="11">
         <v>961824</v>
       </c>
+      <c r="AK5" s="11">
+        <v>0.40200000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1659,8 +1684,11 @@
       <c r="AJ6" s="11">
         <v>17813406</v>
       </c>
+      <c r="AK6" s="11">
+        <v>0.58199999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -1769,8 +1797,11 @@
       <c r="AJ7" s="11">
         <v>2710559</v>
       </c>
+      <c r="AK7" s="11">
+        <v>0.55400000000000005</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1879,8 +1910,11 @@
       <c r="AJ8" s="11">
         <v>1977831</v>
       </c>
+      <c r="AK8" s="11">
+        <v>0.64400000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -1989,8 +2023,11 @@
       <c r="AJ9" s="11">
         <v>437068</v>
       </c>
+      <c r="AK9" s="11">
+        <v>0.55800000000000005</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -2099,8 +2136,11 @@
       <c r="AJ10" s="11">
         <v>336199</v>
       </c>
+      <c r="AK10" s="11">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2249,11 @@
       <c r="AJ11" s="11">
         <v>8697027</v>
       </c>
+      <c r="AK11" s="11">
+        <v>0.504</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -2319,8 +2362,11 @@
       <c r="AJ12" s="11">
         <v>3587882</v>
       </c>
+      <c r="AK12" s="11">
+        <v>0.41299999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -2429,8 +2475,11 @@
       <c r="AJ13" s="11">
         <v>687322</v>
       </c>
+      <c r="AK13" s="11">
+        <v>0.67700000000000005</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
@@ -2539,8 +2588,11 @@
       <c r="AJ14" s="11">
         <v>597942</v>
       </c>
+      <c r="AK14" s="11">
+        <v>0.38100000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
@@ -2649,8 +2701,11 @@
       <c r="AJ15" s="11">
         <v>5235388</v>
       </c>
+      <c r="AK15" s="11">
+        <v>0.56200000000000006</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>59</v>
       </c>
@@ -2759,8 +2814,11 @@
       <c r="AJ16" s="11">
         <v>2456499</v>
       </c>
+      <c r="AK16" s="11">
+        <v>0.42499999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
@@ -2869,8 +2927,11 @@
       <c r="AJ17" s="11">
         <v>1416779</v>
       </c>
+      <c r="AK17" s="11">
+        <v>0.499</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
@@ -2979,8 +3040,11 @@
       <c r="AJ18" s="11">
         <v>1143777</v>
       </c>
+      <c r="AK18" s="11">
+        <v>0.47499999999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>66</v>
       </c>
@@ -3089,8 +3153,11 @@
       <c r="AJ19" s="11">
         <v>1760081</v>
       </c>
+      <c r="AK19" s="11">
+        <v>0.47299999999999998</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
@@ -3199,8 +3266,11 @@
       <c r="AJ20" s="11">
         <v>1486603</v>
       </c>
+      <c r="AK20" s="11">
+        <v>0.36399999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>70</v>
       </c>
@@ -3309,8 +3379,11 @@
       <c r="AJ21" s="11">
         <v>759817</v>
       </c>
+      <c r="AK21" s="11">
+        <v>0.64400000000000002</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>72</v>
       </c>
@@ -3419,8 +3492,11 @@
       <c r="AJ22" s="11">
         <v>3023139</v>
       </c>
+      <c r="AK22" s="11">
+        <v>0.58599999999999997</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>74</v>
       </c>
@@ -3529,8 +3605,11 @@
       <c r="AJ23" s="11">
         <v>3894534</v>
       </c>
+      <c r="AK23" s="11">
+        <v>0.67900000000000005</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>76</v>
       </c>
@@ -3639,8 +3718,11 @@
       <c r="AJ24" s="11">
         <v>4329582</v>
       </c>
+      <c r="AK24" s="11">
+        <v>0.496</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>78</v>
       </c>
@@ -3749,8 +3831,11 @@
       <c r="AJ25" s="11">
         <v>2674482</v>
       </c>
+      <c r="AK25" s="11">
+        <v>0.55200000000000005</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
@@ -3859,8 +3944,11 @@
       <c r="AJ26" s="11">
         <v>829459</v>
       </c>
+      <c r="AK26" s="11">
+        <v>0.34699999999999998</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>82</v>
       </c>
@@ -3969,8 +4057,11 @@
       <c r="AJ27" s="11">
         <v>2160362</v>
       </c>
+      <c r="AK27" s="11">
+        <v>0.42899999999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>84</v>
       </c>
@@ -4079,8 +4170,11 @@
       <c r="AJ28" s="11">
         <v>426212</v>
       </c>
+      <c r="AK28" s="11">
+        <v>0.46200000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>86</v>
       </c>
@@ -4189,8 +4283,11 @@
       <c r="AJ29" s="11">
         <v>839890</v>
       </c>
+      <c r="AK29" s="11">
+        <v>0.49199999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -4299,8 +4396,11 @@
       <c r="AJ30" s="11">
         <v>1172354</v>
       </c>
+      <c r="AK30" s="11">
+        <v>0.46600000000000003</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -4409,8 +4509,11 @@
       <c r="AJ31" s="11">
         <v>710914</v>
       </c>
+      <c r="AK31" s="11">
+        <v>0.60799999999999998</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>92</v>
       </c>
@@ -4519,8 +4622,11 @@
       <c r="AJ32" s="11">
         <v>4510374</v>
       </c>
+      <c r="AK32" s="11">
+        <v>0.61799999999999999</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>95</v>
       </c>
@@ -4629,8 +4735,11 @@
       <c r="AJ33" s="11">
         <v>1027403</v>
       </c>
+      <c r="AK33" s="11">
+        <v>0.58699999999999997</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
@@ -4739,8 +4848,11 @@
       <c r="AJ34" s="11">
         <v>9467256</v>
       </c>
+      <c r="AK34" s="11">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>99</v>
       </c>
@@ -4849,8 +4961,11 @@
       <c r="AJ35" s="11">
         <v>3874110</v>
       </c>
+      <c r="AK35" s="11">
+        <v>0.439</v>
+      </c>
     </row>
-    <row r="36" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>101</v>
       </c>
@@ -4959,8 +5074,11 @@
       <c r="AJ36" s="11">
         <v>282571</v>
       </c>
+      <c r="AK36" s="11">
+        <v>0.42699999999999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>103</v>
       </c>
@@ -5069,8 +5187,11 @@
       <c r="AJ37" s="11">
         <v>4829962</v>
       </c>
+      <c r="AK37" s="11">
+        <v>0.46600000000000003</v>
+      </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>105</v>
       </c>
@@ -5179,8 +5300,11 @@
       <c r="AJ38" s="11">
         <v>1356555</v>
       </c>
+      <c r="AK38" s="11">
+        <v>0.42099999999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>107</v>
       </c>
@@ -5289,8 +5413,11 @@
       <c r="AJ39" s="11">
         <v>2010949</v>
       </c>
+      <c r="AK39" s="11">
+        <v>0.56100000000000005</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>109</v>
       </c>
@@ -5399,8 +5526,11 @@
       <c r="AJ40" s="11">
         <v>5831026</v>
       </c>
+      <c r="AK40" s="11">
+        <v>0.59799999999999998</v>
+      </c>
     </row>
-    <row r="41" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>111</v>
       </c>
@@ -5509,8 +5639,11 @@
       <c r="AJ41" s="11">
         <v>567659</v>
       </c>
+      <c r="AK41" s="11">
+        <v>0.621</v>
+      </c>
     </row>
-    <row r="42" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
@@ -5619,8 +5752,11 @@
       <c r="AJ42" s="11">
         <v>1804772</v>
       </c>
+      <c r="AK42" s="11">
+        <v>0.41699999999999998</v>
+      </c>
     </row>
-    <row r="43" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>115</v>
       </c>
@@ -5729,8 +5865,11 @@
       <c r="AJ43" s="11">
         <v>381212</v>
       </c>
+      <c r="AK43" s="11">
+        <v>0.48799999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>117</v>
       </c>
@@ -5839,8 +5978,11 @@
       <c r="AJ44" s="11">
         <v>2213039</v>
       </c>
+      <c r="AK44" s="11">
+        <v>0.39700000000000002</v>
+      </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>119</v>
       </c>
@@ -5949,8 +6091,11 @@
       <c r="AJ45" s="11">
         <v>10662171</v>
       </c>
+      <c r="AK45" s="11">
+        <v>0.45300000000000001</v>
+      </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>121</v>
       </c>
@@ -6059,8 +6204,11 @@
       <c r="AJ46" s="11">
         <v>1078225</v>
       </c>
+      <c r="AK46" s="11">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>123</v>
       </c>
@@ -6169,8 +6317,11 @@
       <c r="AJ47" s="11">
         <v>370619</v>
       </c>
+      <c r="AK47" s="11">
+        <v>0.71699999999999997</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>125</v>
       </c>
@@ -6279,8 +6430,11 @@
       <c r="AJ48" s="11">
         <v>4003990</v>
       </c>
+      <c r="AK48" s="11">
+        <v>0.56499999999999995</v>
+      </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>127</v>
       </c>
@@ -6389,8 +6543,11 @@
       <c r="AJ49" s="11">
         <v>3727121</v>
       </c>
+      <c r="AK49" s="11">
+        <v>0.58099999999999996</v>
+      </c>
     </row>
-    <row r="50" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>129</v>
       </c>
@@ -6499,8 +6656,11 @@
       <c r="AJ50" s="11">
         <v>621312</v>
       </c>
+      <c r="AK50" s="11">
+        <v>0.41399999999999998</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>131</v>
       </c>
@@ -6609,8 +6769,11 @@
       <c r="AJ51" s="11">
         <v>2659037</v>
       </c>
+      <c r="AK51" s="11">
+        <v>0.51900000000000002</v>
+      </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>133</v>
       </c>
@@ -6718,6 +6881,9 @@
       </c>
       <c r="AJ52" s="11">
         <v>187985</v>
+      </c>
+      <c r="AK52" s="11">
+        <v>0.378</v>
       </c>
     </row>
   </sheetData>

--- a/JuneStateClust_cv19.06.09.xlsx
+++ b/JuneStateClust_cv19.06.09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faithfatchen/Dropbox/My Mac (Faith’s MacBook Pro)/Documents/GuoCovidData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FF0956-0AAF-2541-8F00-7D772ACA3083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8FE848-64CA-1444-9C5B-AEA3F8240BB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{CBC55F90-A7BB-7F41-93C0-3AEF421396FA}"/>
   </bookViews>
@@ -480,7 +480,7 @@
     <t>People with at least 1 dose as  of total population</t>
   </si>
   <si>
-    <t>People with at least 1 dose as % of total population</t>
+    <t>People who are fully vaccinated as % of total population</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7F629F-E8CE-D344-ACFB-8054BA803E5C}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC40" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14:AN55"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1237,7 @@
         <v>1443230</v>
       </c>
       <c r="AK2" s="11">
-        <v>0.36199999999999999</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
@@ -1350,7 +1350,7 @@
         <v>294324</v>
       </c>
       <c r="AK3" s="11">
-        <v>0.46899999999999997</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
@@ -1463,7 +1463,7 @@
         <v>2697379</v>
       </c>
       <c r="AK4" s="11">
-        <v>0.47199999999999998</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
@@ -1576,7 +1576,7 @@
         <v>961824</v>
       </c>
       <c r="AK5" s="11">
-        <v>0.40200000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
@@ -1685,7 +1685,7 @@
         <v>17813406</v>
       </c>
       <c r="AK6" s="11">
-        <v>0.58199999999999996</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>2710559</v>
       </c>
       <c r="AK7" s="11">
-        <v>0.55400000000000005</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -1911,7 +1911,7 @@
         <v>1977831</v>
       </c>
       <c r="AK8" s="11">
-        <v>0.64400000000000002</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
         <v>437068</v>
       </c>
       <c r="AK9" s="11">
-        <v>0.55800000000000005</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -2137,7 +2137,7 @@
         <v>336199</v>
       </c>
       <c r="AK10" s="11">
-        <v>0.57999999999999996</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -2250,7 +2250,7 @@
         <v>8697027</v>
       </c>
       <c r="AK11" s="11">
-        <v>0.504</v>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
@@ -2363,7 +2363,7 @@
         <v>3587882</v>
       </c>
       <c r="AK12" s="11">
-        <v>0.41299999999999998</v>
+        <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>687322</v>
       </c>
       <c r="AK13" s="11">
-        <v>0.67700000000000005</v>
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
@@ -2589,7 +2589,7 @@
         <v>597942</v>
       </c>
       <c r="AK14" s="11">
-        <v>0.38100000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
@@ -2702,7 +2702,7 @@
         <v>5235388</v>
       </c>
       <c r="AK15" s="11">
-        <v>0.56200000000000006</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
@@ -2815,7 +2815,7 @@
         <v>2456499</v>
       </c>
       <c r="AK16" s="11">
-        <v>0.42499999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -2928,7 +2928,7 @@
         <v>1416779</v>
       </c>
       <c r="AK17" s="11">
-        <v>0.499</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -3041,7 +3041,7 @@
         <v>1143777</v>
       </c>
       <c r="AK18" s="11">
-        <v>0.47499999999999998</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>1760081</v>
       </c>
       <c r="AK19" s="11">
-        <v>0.47299999999999998</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
@@ -3267,7 +3267,7 @@
         <v>1486603</v>
       </c>
       <c r="AK20" s="11">
-        <v>0.36399999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
@@ -3380,7 +3380,7 @@
         <v>759817</v>
       </c>
       <c r="AK21" s="11">
-        <v>0.64400000000000002</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
@@ -3493,7 +3493,7 @@
         <v>3023139</v>
       </c>
       <c r="AK22" s="11">
-        <v>0.58599999999999997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -3606,7 +3606,7 @@
         <v>3894534</v>
       </c>
       <c r="AK23" s="11">
-        <v>0.67900000000000005</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>4329582</v>
       </c>
       <c r="AK24" s="11">
-        <v>0.496</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
@@ -3832,7 +3832,7 @@
         <v>2674482</v>
       </c>
       <c r="AK25" s="11">
-        <v>0.55200000000000005</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
@@ -3945,7 +3945,7 @@
         <v>829459</v>
       </c>
       <c r="AK26" s="11">
-        <v>0.34699999999999998</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
@@ -4058,7 +4058,7 @@
         <v>2160362</v>
       </c>
       <c r="AK27" s="11">
-        <v>0.42899999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
@@ -4171,7 +4171,7 @@
         <v>426212</v>
       </c>
       <c r="AK28" s="11">
-        <v>0.46200000000000002</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
         <v>839890</v>
       </c>
       <c r="AK29" s="11">
-        <v>0.49199999999999999</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
@@ -4397,7 +4397,7 @@
         <v>1172354</v>
       </c>
       <c r="AK30" s="11">
-        <v>0.46600000000000003</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -4510,7 +4510,7 @@
         <v>710914</v>
       </c>
       <c r="AK31" s="11">
-        <v>0.60799999999999998</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>4510374</v>
       </c>
       <c r="AK32" s="11">
-        <v>0.61799999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
@@ -4736,7 +4736,7 @@
         <v>1027403</v>
       </c>
       <c r="AK33" s="11">
-        <v>0.58699999999999997</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
@@ -4849,7 +4849,7 @@
         <v>9467256</v>
       </c>
       <c r="AK34" s="11">
-        <v>0.56999999999999995</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -4962,7 +4962,7 @@
         <v>3874110</v>
       </c>
       <c r="AK35" s="11">
-        <v>0.439</v>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>282571</v>
       </c>
       <c r="AK36" s="11">
-        <v>0.42699999999999999</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.2">
@@ -5188,7 +5188,7 @@
         <v>4829962</v>
       </c>
       <c r="AK37" s="11">
-        <v>0.46600000000000003</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.2">
@@ -5301,7 +5301,7 @@
         <v>1356555</v>
       </c>
       <c r="AK38" s="11">
-        <v>0.42099999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.2">
@@ -5414,7 +5414,7 @@
         <v>2010949</v>
       </c>
       <c r="AK39" s="11">
-        <v>0.56100000000000005</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>5831026</v>
       </c>
       <c r="AK40" s="11">
-        <v>0.59799999999999998</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -5640,7 +5640,7 @@
         <v>567659</v>
       </c>
       <c r="AK41" s="11">
-        <v>0.621</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>1804772</v>
       </c>
       <c r="AK42" s="11">
-        <v>0.41699999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -5866,7 +5866,7 @@
         <v>381212</v>
       </c>
       <c r="AK43" s="11">
-        <v>0.48799999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.2">
@@ -5979,7 +5979,7 @@
         <v>2213039</v>
       </c>
       <c r="AK44" s="11">
-        <v>0.39700000000000002</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.2">
@@ -6092,7 +6092,7 @@
         <v>10662171</v>
       </c>
       <c r="AK45" s="11">
-        <v>0.45300000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.2">
@@ -6205,7 +6205,7 @@
         <v>1078225</v>
       </c>
       <c r="AK46" s="11">
-        <v>0.46</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.2">
@@ -6318,7 +6318,7 @@
         <v>370619</v>
       </c>
       <c r="AK47" s="11">
-        <v>0.71699999999999997</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.2">
@@ -6431,7 +6431,7 @@
         <v>4003990</v>
       </c>
       <c r="AK48" s="11">
-        <v>0.56499999999999995</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.2">
@@ -6544,7 +6544,7 @@
         <v>3727121</v>
       </c>
       <c r="AK49" s="11">
-        <v>0.58099999999999996</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="32" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
         <v>621312</v>
       </c>
       <c r="AK50" s="11">
-        <v>0.41399999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.2">
@@ -6770,7 +6770,7 @@
         <v>2659037</v>
       </c>
       <c r="AK51" s="11">
-        <v>0.51900000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.2">
@@ -6883,7 +6883,7 @@
         <v>187985</v>
       </c>
       <c r="AK52" s="11">
-        <v>0.378</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
   </sheetData>
